--- a/data/sheet/msg_41481.xlsx
+++ b/data/sheet/msg_41481.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="88">
   <si>
     <t/>
   </si>
@@ -263,6 +263,27 @@
   </si>
   <si>
     <t>2022-03-16 18:28:22</t>
+  </si>
+  <si>
+    <t>2022-03-18 12:38:47</t>
+  </si>
+  <si>
+    <t>2022-03-18 12:39:39</t>
+  </si>
+  <si>
+    <t>2022-03-18 12:54:16</t>
+  </si>
+  <si>
+    <t>2022-03-18 12:58:39</t>
+  </si>
+  <si>
+    <t>2022-03-18 12:59:52</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:02:04</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:07:37</t>
   </si>
 </sst>
 </file>
@@ -615,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI13"/>
+  <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -3033,6 +3054,1301 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1.647603529E9</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>1.647603581E9</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>1.647604458E9</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1.647604721E9</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1.647604794E9</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>65</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1.647604926E9</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1.647605259E9</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41481.xlsx
+++ b/data/sheet/msg_41481.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="95">
   <si>
     <t/>
   </si>
@@ -284,6 +284,27 @@
   </si>
   <si>
     <t>2022-03-18 13:07:37</t>
+  </si>
+  <si>
+    <t>2022-03-21 09:38:58</t>
+  </si>
+  <si>
+    <t>2022-03-21 09:58:00</t>
+  </si>
+  <si>
+    <t>2022-03-21 09:59:23</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:01:22</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:02:12</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:03:18</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:55:47</t>
   </si>
 </sst>
 </file>
@@ -636,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI20"/>
+  <dimension ref="A1:BI27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -4349,6 +4370,1301 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>65</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>1.647851939E9</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>1.647853081E9</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1.647853164E9</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.647853284E9</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>65</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>1.647853334E9</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1.6478534E9</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>65</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1.647856549E9</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41481.xlsx
+++ b/data/sheet/msg_41481.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="97">
   <si>
     <t/>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>2022-03-21 10:55:47</t>
+  </si>
+  <si>
+    <t>2022-03-21 13:46:35</t>
+  </si>
+  <si>
+    <t>2022-03-21 13:47:37</t>
   </si>
 </sst>
 </file>
@@ -657,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI27"/>
+  <dimension ref="A1:BI29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -5665,6 +5671,376 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1.647866797E9</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>65</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.647866859E9</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41481.xlsx
+++ b/data/sheet/msg_41481.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="98">
   <si>
     <t/>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>2022-03-21 13:47:37</t>
+  </si>
+  <si>
+    <t>2022-03-21 17:09:30</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI29"/>
+  <dimension ref="A1:BI30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -6041,6 +6044,191 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>1.647878973E9</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41481.xlsx
+++ b/data/sheet/msg_41481.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="128">
   <si>
     <t/>
   </si>
@@ -314,6 +314,96 @@
   </si>
   <si>
     <t>2022-03-21 17:09:30</t>
+  </si>
+  <si>
+    <t>2022-03-21 22:08:55</t>
+  </si>
+  <si>
+    <t>2022-03-22 07:30:47</t>
+  </si>
+  <si>
+    <t>2022-03-22 07:51:27</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:07:38</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:08:55</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:16:15</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:18:57</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:25:27</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:59:07</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:01:53</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:20:57</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:23:33</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:49:59</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:54:36</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:56:19</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:01:14</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:23:36</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:27:01</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:34:43</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:41:12</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:56:02</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:57:12</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:59:13</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:04:17</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:15:12</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:20:42</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:52:16</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:56:50</t>
+  </si>
+  <si>
+    <t>2022-03-22 12:38:26</t>
+  </si>
+  <si>
+    <t>2022-03-22 12:42:11</t>
   </si>
 </sst>
 </file>
@@ -666,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI30"/>
+  <dimension ref="A1:BI60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -6229,6 +6319,5556 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>65</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1.64789694E9</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>65</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>1.647930648E9</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1.647931888E9</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1.647932859E9</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>65</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>1.647932935E9</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>65</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1.647933376E9</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>65</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1.647933537E9</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>65</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>1.647933928E9</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>65</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1.647935948E9</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>65</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1.647936114E9</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>65</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1.647937258E9</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>65</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>1.647937414E9</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>65</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1.647939E9</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BG43" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1.647939277E9</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BG44" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>65</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1.64793938E9</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BG45" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>65</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>1.647939675E9</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG46" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>65</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1.647941017E9</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG47" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>65</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>1.647941223E9</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG48" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>65</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1.647941685E9</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG49" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>65</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>1.647942074E9</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BG50" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>65</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>1.647942963E9</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG51" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>65</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.647943033E9</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG52" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>65</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1.647943154E9</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG53" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>65</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>1.647943458E9</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>65</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>1.647944113E9</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BG55" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>65</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1.647944444E9</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BG56" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>65</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>1.647946338E9</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG57" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>65</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1.647946611E9</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BG58" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>65</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.647949108E9</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE59" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG59" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>65</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1.647949333E9</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG60" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41481.xlsx
+++ b/data/sheet/msg_41481.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="131">
   <si>
     <t/>
   </si>
@@ -404,6 +404,15 @@
   </si>
   <si>
     <t>2022-03-22 12:42:11</t>
+  </si>
+  <si>
+    <t>2022-03-22 13:07:04</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:19:27</t>
+  </si>
+  <si>
+    <t>2022-03-23 23:36:21</t>
   </si>
 </sst>
 </file>
@@ -756,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI60"/>
+  <dimension ref="A1:BI63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -11869,6 +11878,561 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>65</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1.647950826E9</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG61" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>65</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1.647976771E9</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG62" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>65</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>1.648074986E9</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE63" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BG63" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41481.xlsx
+++ b/data/sheet/msg_41481.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="167">
   <si>
     <t/>
   </si>
@@ -414,6 +414,114 @@
   <si>
     <t>2022-03-23 23:36:21</t>
   </si>
+  <si>
+    <t>2022-03-25 13:45:59</t>
+  </si>
+  <si>
+    <t>2022-03-25 13:47:10</t>
+  </si>
+  <si>
+    <t>2022-03-25 13:58:28</t>
+  </si>
+  <si>
+    <t>2022-03-25 14:02:30</t>
+  </si>
+  <si>
+    <t>2022-03-25 14:10:43</t>
+  </si>
+  <si>
+    <t>2022-06-09 13:46:32</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:20:19</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:23:51</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:26:39</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:27:12</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:29:17</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:32:09</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:45:29</t>
+  </si>
+  <si>
+    <t>2022-06-09 22:53:51</t>
+  </si>
+  <si>
+    <t>2022-06-10 09:15:20</t>
+  </si>
+  <si>
+    <t>2022-06-10 13:18:39</t>
+  </si>
+  <si>
+    <t>2022-06-10 13:20:32</t>
+  </si>
+  <si>
+    <t>2022-06-10 13:49:33</t>
+  </si>
+  <si>
+    <t>2022-06-10 16:27:51</t>
+  </si>
+  <si>
+    <t>2022-06-10 18:47:47</t>
+  </si>
+  <si>
+    <t>2022-06-11 07:59:43</t>
+  </si>
+  <si>
+    <t>2022-06-24 12:56:54</t>
+  </si>
+  <si>
+    <t>2022-07-01 15:56:46</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:00:07</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:03:54</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:34:13</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:35:54</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:36:25</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:38:55</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:05:33</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:06:23</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:08:31</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:11:01</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:12:32</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:13:33</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:38:10</t>
+  </si>
 </sst>
 </file>
 
@@ -765,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI63"/>
+  <dimension ref="A1:BI99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -12433,6 +12541,6666 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>65</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>1.648212361E9</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE64" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BG64" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>65</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>1.648212432E9</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE65" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BG65" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>65</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1.64821311E9</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE66" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BG66" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>65</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.648213352E9</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE67" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BG67" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>65</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1.648213845E9</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE68" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG68" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>65</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.654775206E9</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE69" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BG69" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>65</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1.654784433E9</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE70" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG70" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" t="s">
+        <v>63</v>
+      </c>
+      <c r="F71" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>65</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>1.654784646E9</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE71" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BG71" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.654784813E9</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE72" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BG72" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>65</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.654784846E9</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE73" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BG73" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>65</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.654784972E9</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE74" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BG74" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>65</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1.654785144E9</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE75" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BG75" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" t="s">
+        <v>64</v>
+      </c>
+      <c r="G76" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>65</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>1.654785944E9</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE76" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BG76" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" t="s">
+        <v>63</v>
+      </c>
+      <c r="F77" t="s">
+        <v>64</v>
+      </c>
+      <c r="G77" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>65</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>1.654808046E9</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE77" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BG77" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" t="s">
+        <v>63</v>
+      </c>
+      <c r="F78" t="s">
+        <v>64</v>
+      </c>
+      <c r="G78" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>65</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>1.654845321E9</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE78" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG78" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" t="s">
+        <v>63</v>
+      </c>
+      <c r="F79" t="s">
+        <v>64</v>
+      </c>
+      <c r="G79" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>65</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>1.654859921E9</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE79" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG79" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" t="s">
+        <v>64</v>
+      </c>
+      <c r="G80" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>65</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.654860034E9</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE80" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG80" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>65</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>1.654861775E9</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE81" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BG81" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" t="s">
+        <v>64</v>
+      </c>
+      <c r="G82" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>65</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>1.654871274E9</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE82" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BG82" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" t="s">
+        <v>63</v>
+      </c>
+      <c r="F83" t="s">
+        <v>64</v>
+      </c>
+      <c r="G83" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>65</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>1.65487967E9</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE83" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BG83" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" t="s">
+        <v>64</v>
+      </c>
+      <c r="G84" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>65</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>1.65492719E9</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE84" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BG84" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>65</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>1.656068216E9</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE85" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG85" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" t="s">
+        <v>64</v>
+      </c>
+      <c r="G86" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>65</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK86" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>1.656683814E9</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE86" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG86" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87" t="s">
+        <v>63</v>
+      </c>
+      <c r="F87" t="s">
+        <v>64</v>
+      </c>
+      <c r="G87" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>65</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>1.656684015E9</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE87" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG87" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" t="s">
+        <v>64</v>
+      </c>
+      <c r="G88" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>65</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>1.656684242E9</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE88" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG88" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" t="s">
+        <v>63</v>
+      </c>
+      <c r="F89" t="s">
+        <v>64</v>
+      </c>
+      <c r="G89" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>65</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>1.656686061E9</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE89" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG89" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" t="s">
+        <v>64</v>
+      </c>
+      <c r="G90" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>65</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK90" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.656686162E9</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE90" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BG90" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91" t="s">
+        <v>63</v>
+      </c>
+      <c r="F91" t="s">
+        <v>64</v>
+      </c>
+      <c r="G91" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>65</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>1.656686194E9</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE91" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG91" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" t="s">
+        <v>64</v>
+      </c>
+      <c r="G92" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>65</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>1.656686344E9</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE92" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG92" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93" t="s">
+        <v>63</v>
+      </c>
+      <c r="F93" t="s">
+        <v>64</v>
+      </c>
+      <c r="G93" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>65</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>1.656687941E9</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE93" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG93" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" t="s">
+        <v>64</v>
+      </c>
+      <c r="G94" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>65</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>1.656687991E9</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE94" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG94" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G95" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>65</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1.65668812E9</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE95" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG95" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96" t="s">
+        <v>63</v>
+      </c>
+      <c r="F96" t="s">
+        <v>64</v>
+      </c>
+      <c r="G96" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>65</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK96" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1.65668827E9</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE96" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BG96" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" t="s">
+        <v>63</v>
+      </c>
+      <c r="F97" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>65</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK97" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1.65668836E9</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE97" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BG97" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" t="s">
+        <v>63</v>
+      </c>
+      <c r="F98" t="s">
+        <v>64</v>
+      </c>
+      <c r="G98" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>65</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>1.656688422E9</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE98" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG98" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>166</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" t="s">
+        <v>63</v>
+      </c>
+      <c r="F99" t="s">
+        <v>64</v>
+      </c>
+      <c r="G99" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>65</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK99" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1.656689898E9</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE99" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BG99" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_41481.xlsx
+++ b/data/sheet/msg_41481.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="168">
   <si>
     <t/>
   </si>
@@ -522,6 +522,9 @@
   <si>
     <t>2022-07-01 17:38:10</t>
   </si>
+  <si>
+    <t>2022-07-02 13:54:44</t>
+  </si>
 </sst>
 </file>
 
@@ -873,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI99"/>
+  <dimension ref="A1:BI100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -19201,6 +19204,191 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" t="s">
+        <v>63</v>
+      </c>
+      <c r="F100" t="s">
+        <v>64</v>
+      </c>
+      <c r="G100" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>65</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>10081.0</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>1.656762886E9</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE100" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BG100" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
